--- a/doc/产品发布/部署说明/防错料系统硬件配置清单.xlsx
+++ b/doc/产品发布/部署说明/防错料系统硬件配置清单.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +217,22 @@
   </si>
   <si>
     <t>HDMI高清线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尼韦尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库需配一把，用于扫描来料料盘条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -894,111 +911,128 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="56" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <f>E6*F6</f>
-        <v>9000</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="28" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="56" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2">
         <f>E7*F7</f>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="56" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="28" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2">
+        <f>E8*F8</f>
+        <v>4000</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="56" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>2500</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" ref="H8" si="0">E8*F8</f>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9" si="0">E9*F9</f>
         <v>15000</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
+    <row r="10" spans="2:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="15">
-        <f>SUM(H4:H8)</f>
-        <v>50000</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="15">
+        <f>SUM(H4:H9)</f>
+        <v>51500</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -1060,15 +1094,25 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
